--- a/app/public/excels/template/postgraduate.xlsx
+++ b/app/public/excels/template/postgraduate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>毕业证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>Xsf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,19 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,80 +454,83 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/app/public/excels/template/postgraduate.xlsx
+++ b/app/public/excels/template/postgraduate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>毕业证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,15 +41,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入学时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,19 +414,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,83 +446,77 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
